--- a/biology/Zoologie/Bombyx_versicolore/Bombyx_versicolore.xlsx
+++ b/biology/Zoologie/Bombyx_versicolore/Bombyx_versicolore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Endromis versicolora
 Le Bombyx versicolore ou le Versicolore, Endromis versicolora, est une espèce de lépidoptères (papillons) de la famille des Endromidae. Elle est l'unique représentante du genre monotypique Endromis.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les papillons mâles ont une longueur de l'aile antérieure (LAA) de 25 à 30 mm. Ils sont actifs de jour.
 La chenille est vert vif avec des bandes latérales claires et une saillie pointue sur le 8e anneau abdominal.
@@ -548,7 +562,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est univoltine, avec une période de vol allant de mars à mai. L'adulte ne se nourrit pas.
 Les plantes hôtes sont des Betula, Corylus, Tilia, Alnus, etc.
@@ -580,9 +596,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répandue sur une aire allant de l’Ouest de l’Europe à l’Est de la Sibérie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue sur une aire allant de l’Ouest de l’Europe à l’Est de la Sibérie.
 Ses habitats sont les forêts de bouleaux.
 </t>
         </is>
@@ -612,11 +630,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce actuellement appelée Endromis versicolora a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena versicolora[1].
-Elle est l'espèce type et unique espèce du genre monotypique Endromis, décrit par l'entomologiste allemand Ferdinand Ochsenheimer en 1810[1].
-Il existe une sous-espèce particulière dans le Caucase et en Anatolie : Endromis versicolora eichleri Alberti, 1975[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce actuellement appelée Endromis versicolora a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena versicolora.
+Elle est l'espèce type et unique espèce du genre monotypique Endromis, décrit par l'entomologiste allemand Ferdinand Ochsenheimer en 1810.
+Il existe une sous-espèce particulière dans le Caucase et en Anatolie : Endromis versicolora eichleri Alberti, 1975.
 </t>
         </is>
       </c>
